--- a/paper/supplementary tables/supplementary_tables.xlsx
+++ b/paper/supplementary tables/supplementary_tables.xlsx
@@ -22562,7 +22562,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22623,10 +22623,163 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sum of acute symptoms</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>mean(SD) = 17 (5.95)
+median(IQR) = 17 (13 - 21)
+range = 4 - 34
+ncomplete = 270</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>mean(SD) = 15.8 (6.88)
+median(IQR) = 14.5 (11 - 20)
+range = 2 - 41
+ncomplete = 104</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>mean(SD) = 16.4 (6.24)
+median(IQR) = 16 (12 - 20)
+range = 2 - 33
+ncomplete = 173</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ns (p = 0.11)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ns (p = 0.28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>long COVID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tyrol</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Physical performance loss</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>mean(SD) = 26.9 (21.5)
+median(IQR) = 20 (10 - 39)
+range = 0 - 100
+ncomplete = 269</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mean(SD) = 21 (19.7)
+median(IQR) = 15 (7.75 - 30)
+range = 0 - 89
+ncomplete = 104</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>mean(SD) = 22.6 (20.2)
+median(IQR) = 19 (10 - 31)
+range = 0 - 92
+ncomplete = 173</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p = 0.01</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ns (p = 0.05)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>long COVID</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tyrol</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Quality of life score</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.17 (0.78)
+median(IQR) = 1 (1 - 2)
+range = 0 - 3
+ncomplete = 270</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.16 (0.739)
+median(IQR) = 1 (1 - 1.25)
+range = 0 - 3
+ncomplete = 104</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.1 (0.805)
+median(IQR) = 1 (1 - 2)
+range = 0 - 3
+ncomplete = 173</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ns (p = 0.69)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ns (p = 0.69)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>long COVID</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tyrol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Overall mental health score</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>mean(SD) = 1.2 (0.777)
 median(IQR) = 1 (1 - 2)
@@ -22634,7 +22787,7 @@
 ncomplete = 270</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>mean(SD) = 1.08 (0.784)
 median(IQR) = 1 (1 - 2)
@@ -22642,7 +22795,7 @@
 ncomplete = 104</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>mean(SD) = 1.08 (0.75)
 median(IQR) = 1 (1 - 2)
@@ -22650,85 +22803,34 @@
 ncomplete = 173</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>ns (p = 0.2)</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ns (p = 0.4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ns (p = 0.34)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>long COVID</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Tyrol</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Quality of life score</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.17 (0.78)
-median(IQR) = 1 (1 - 2)
-range = 0 - 3
-ncomplete = 270</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.16 (0.739)
-median(IQR) = 1 (1 - 1.25)
-range = 0 - 3
-ncomplete = 104</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.1 (0.805)
-median(IQR) = 1 (1 - 2)
-range = 0 - 3
-ncomplete = 173</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ns (p = 0.69)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ns (p = 0.69)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>long COVID</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tyrol</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>PHQ stress score</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>mean(SD) = 5.37 (3.59)
 median(IQR) = 5 (3 - 7)
@@ -22736,7 +22838,7 @@
 ncomplete = 269</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>mean(SD) = 5.24 (3.8)
 median(IQR) = 4 (2.75 - 8)
@@ -22744,7 +22846,7 @@
 ncomplete = 104</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>mean(SD) = 5.03 (3.9)
 median(IQR) = 4 (2 - 7)
@@ -22752,85 +22854,187 @@
 ncomplete = 172</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>ns (p = 0.33)</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ns (p = 0.44)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ns (p = 0.41)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>long COVID</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tyrol</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>South Tyrol</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sum of acute symptoms</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>mean(SD) = 17.6 (6.68)
+median(IQR) = 17 (13 - 22)
+range = 4 - 38
+ncomplete = 244</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mean(SD) = 13.5 (6.76)
+median(IQR) = 14 (7.5 - 17)
+range = 2 - 34
+ncomplete = 59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>mean(SD) = 17.7 (7.89)
+median(IQR) = 16.5 (12 - 24)
+range = 3 - 39
+ncomplete = 136</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>p = 0.00052</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>p = 0.0013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>long COVID</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>South Tyrol</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Physical performance loss</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>mean(SD) = 26.9 (21.5)
-median(IQR) = 20 (10 - 39)
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>mean(SD) = 25.4 (20.2)
+median(IQR) = 20 (10 - 34)
+range = 0 - 93
+ncomplete = 240</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>mean(SD) = 14.8 (16.8)
+median(IQR) = 10 (2.5 - 20)
+range = 0 - 75
+ncomplete = 58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>mean(SD) = 26.2 (23.8)
+median(IQR) = 20 (8 - 40)
 range = 0 - 100
-ncomplete = 269</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>mean(SD) = 21 (19.7)
-median(IQR) = 15 (7.75 - 30)
-range = 0 - 89
-ncomplete = 104</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>mean(SD) = 22.6 (20.2)
-median(IQR) = 19 (10 - 31)
-range = 0 - 92
-ncomplete = 173</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>p = 0.01</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>p = 0.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+ncomplete = 136</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>p = 0.00033</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>p = 0.0013</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>long COVID</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>South Tyrol</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Quality of life score</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.29 (0.697)
+median(IQR) = 1 (1 - 2)
+range = 0 - 3
+ncomplete = 244</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.07 (0.666)
+median(IQR) = 1 (1 - 1)
+range = 0 - 3
+ncomplete = 59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.29 (0.807)
+median(IQR) = 1 (1 - 2)
+range = 0 - 3
+ncomplete = 136</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.096)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.096)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>long COVID</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>South Tyrol</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Overall mental health score</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>mean(SD) = 1.22 (0.779)
 median(IQR) = 1 (1 - 2)
@@ -22838,7 +23042,7 @@
 ncomplete = 244</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>mean(SD) = 0.915 (0.702)
 median(IQR) = 1 (0 - 1)
@@ -22846,7 +23050,7 @@
 ncomplete = 59</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>mean(SD) = 1.2 (0.806)
 median(IQR) = 1 (1 - 2)
@@ -22854,85 +23058,34 @@
 ncomplete = 136</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>p = 0.022</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>p = 0.029</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>p = 0.027</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>long COVID</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>South Tyrol</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Quality of life score</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.29 (0.697)
-median(IQR) = 1 (1 - 2)
-range = 0 - 3
-ncomplete = 244</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.07 (0.666)
-median(IQR) = 1 (1 - 1)
-range = 0 - 3
-ncomplete = 59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.29 (0.807)
-median(IQR) = 1 (1 - 2)
-range = 0 - 3
-ncomplete = 136</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ns (p = 0.096)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ns (p = 0.096)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>long COVID</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>South Tyrol</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>PHQ stress score</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>mean(SD) = 5.11 (3.29)
 median(IQR) = 5 (2 - 7)
@@ -22940,7 +23093,7 @@
 ncomplete = 242</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>mean(SD) = 3.61 (2.7)
 median(IQR) = 3 (1.5 - 6)
@@ -22948,7 +23101,7 @@
 ncomplete = 59</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>mean(SD) = 5.68 (4.11)
 median(IQR) = 5 (2.75 - 8)
@@ -22956,85 +23109,187 @@
 ncomplete = 136</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>p = 0.0021</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>p = 0.0042</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>long COVID</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>South Tyrol</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>p = 0.0035</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PASC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tyrol</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sum of acute symptoms</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>mean(SD) = 17.9 (7.17)
+median(IQR) = 18 (13 - 22)
+range = 5 - 42
+ncomplete = 103</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>mean(SD) = 15.6 (6.65)
+median(IQR) = 14 (11 - 20)
+range = 2 - 33
+ncomplete = 54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>mean(SD) = 16.2 (5.96)
+median(IQR) = 17 (13 - 20)
+range = 5 - 29
+ncomplete = 57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.11)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PASC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tyrol</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Physical performance loss</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>mean(SD) = 25.4 (20.2)
-median(IQR) = 20 (10 - 34)
-range = 0 - 93
-ncomplete = 240</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>mean(SD) = 14.8 (16.8)
-median(IQR) = 10 (2.5 - 20)
-range = 0 - 75
-ncomplete = 58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>mean(SD) = 26.2 (23.8)
-median(IQR) = 20 (8 - 40)
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mean(SD) = 29.7 (22)
+median(IQR) = 24 (11.2 - 45.8)
 range = 0 - 100
-ncomplete = 136</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>p = 0.00033</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>p = 0.0013</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+ncomplete = 102</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>mean(SD) = 20.3 (20)
+median(IQR) = 14 (8.25 - 30)
+range = 0 - 92
+ncomplete = 54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>mean(SD) = 20.9 (18.7)
+median(IQR) = 19 (10 - 30)
+range = 0 - 92
+ncomplete = 57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>p = 0.003</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>p = 0.015</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>PASC</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Tyrol</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Quality of life score</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.26 (0.766)
+median(IQR) = 1 (1 - 2)
+range = 0 - 3
+ncomplete = 103</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.07 (0.64)
+median(IQR) = 1 (1 - 1)
+range = 0 - 3
+ncomplete = 54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.07 (0.821)
+median(IQR) = 1 (1 - 2)
+range = 0 - 3
+ncomplete = 57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ns (p = 0.19)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ns (p = 0.19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PASC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tyrol</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Overall mental health score</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>mean(SD) = 1.3 (0.826)
 median(IQR) = 1 (1 - 2)
@@ -23042,7 +23297,7 @@
 ncomplete = 103</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>mean(SD) = 1.04 (0.8)
 median(IQR) = 1 (0.25 - 1.75)
@@ -23050,7 +23305,7 @@
 ncomplete = 54</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>mean(SD) = 1.05 (0.692)
 median(IQR) = 1 (1 - 1)
@@ -23058,85 +23313,34 @@
 ncomplete = 57</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>ns (p = 0.065)</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ns (p = 0.086)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ns (p = 0.11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>PASC</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Tyrol</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Quality of life score</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.26 (0.766)
-median(IQR) = 1 (1 - 2)
-range = 0 - 3
-ncomplete = 103</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.07 (0.64)
-median(IQR) = 1 (1 - 1)
-range = 0 - 3
-ncomplete = 54</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.07 (0.821)
-median(IQR) = 1 (1 - 2)
-range = 0 - 3
-ncomplete = 57</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ns (p = 0.19)</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ns (p = 0.19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PASC</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Tyrol</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>PHQ stress score</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>mean(SD) = 6.25 (4.15)
 median(IQR) = 5 (3 - 9.5)
@@ -23144,7 +23348,7 @@
 ncomplete = 103</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>mean(SD) = 4.94 (3.8)
 median(IQR) = 4 (3 - 6.75)
@@ -23152,7 +23356,7 @@
 ncomplete = 54</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>mean(SD) = 4.72 (3.89)
 median(IQR) = 3 (2 - 7)
@@ -23160,85 +23364,187 @@
 ncomplete = 57</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>p = 0.027</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ns (p = 0.054)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ns (p = 0.067)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>PASC</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Tyrol</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>South Tyrol</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sum of acute symptoms</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>mean(SD) = 18.6 (7.37)
+median(IQR) = 18 (14 - 23)
+range = 2 - 38
+ncomplete = 98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>mean(SD) = 13.3 (6.64)
+median(IQR) = 15 (7 - 17)
+range = 5 - 25
+ncomplete = 21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>mean(SD) = 17.8 (8.21)
+median(IQR) = 16 (11.8 - 25)
+range = 4 - 33
+ncomplete = 52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>p = 0.022</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>p = 0.043</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PASC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>South Tyrol</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Physical performance loss</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>mean(SD) = 29.7 (22)
-median(IQR) = 24 (11.2 - 45.8)
-range = 0 - 100
-ncomplete = 102</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>mean(SD) = 20.3 (20)
-median(IQR) = 14 (8.25 - 30)
-range = 0 - 92
-ncomplete = 54</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>mean(SD) = 20.9 (18.7)
-median(IQR) = 19 (10 - 30)
-range = 0 - 92
-ncomplete = 57</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>p = 0.003</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>p = 0.012</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mean(SD) = 28.7 (22.4)
+median(IQR) = 24 (11 - 45.8)
+range = 0 - 93
+ncomplete = 98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>mean(SD) = 15.4 (16.5)
+median(IQR) = 12 (3.25 - 23)
+range = 0 - 58
+ncomplete = 20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>mean(SD) = 24.4 (20.2)
+median(IQR) = 20 (10 - 38.2)
+range = 0 - 75
+ncomplete = 52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>p = 0.026</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>p = 0.043</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>PASC</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>South Tyrol</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Quality of life score</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.43 (0.718)
+median(IQR) = 1 (1 - 2)
+range = 0 - 3
+ncomplete = 98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>mean(SD) = 0.905 (0.7)
+median(IQR) = 1 (0 - 1)
+range = 0 - 2
+ncomplete = 21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>mean(SD) = 1.33 (0.734)
+median(IQR) = 1 (1 - 2)
+range = 0 - 3
+ncomplete = 52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>p = 0.017</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>p = 0.043</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PASC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>South Tyrol</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Overall mental health score</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>mean(SD) = 1.24 (0.787)
 median(IQR) = 1 (1 - 2)
@@ -23246,7 +23552,7 @@
 ncomplete = 98</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>mean(SD) = 1.05 (0.74)
 median(IQR) = 1 (1 - 1)
@@ -23254,7 +23560,7 @@
 ncomplete = 21</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>mean(SD) = 1.19 (0.817)
 median(IQR) = 1 (1 - 2)
@@ -23262,85 +23568,34 @@
 ncomplete = 52</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>ns (p = 0.52)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>ns (p = 0.52)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>PASC</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>South Tyrol</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Quality of life score</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.43 (0.718)
-median(IQR) = 1 (1 - 2)
-range = 0 - 3
-ncomplete = 98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>mean(SD) = 0.905 (0.7)
-median(IQR) = 1 (0 - 1)
-range = 0 - 2
-ncomplete = 21</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>mean(SD) = 1.33 (0.734)
-median(IQR) = 1 (1 - 2)
-range = 0 - 3
-ncomplete = 52</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>p = 0.017</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ns (p = 0.052)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PASC</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>South Tyrol</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>PHQ stress score</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>mean(SD) = 5.77 (3.29)
 median(IQR) = 6 (3 - 8)
@@ -23348,7 +23603,7 @@
 ncomplete = 98</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>mean(SD) = 3.9 (1.92)
 median(IQR) = 4 (2 - 6)
@@ -23356,7 +23611,7 @@
 ncomplete = 21</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>mean(SD) = 5.96 (3.91)
 median(IQR) = 5.5 (2.75 - 8.25)
@@ -23364,65 +23619,14 @@
 ncomplete = 52</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>p = 0.047</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ns (p = 0.063)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>PASC</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>South Tyrol</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Physical performance loss</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>mean(SD) = 28.7 (22.4)
-median(IQR) = 24 (11 - 45.8)
-range = 0 - 93
-ncomplete = 98</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>mean(SD) = 15.4 (16.5)
-median(IQR) = 12 (3.25 - 23)
-range = 0 - 58
-ncomplete = 20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>mean(SD) = 24.4 (20.2)
-median(IQR) = 20 (10 - 38.2)
-range = 0 - 75
-ncomplete = 52</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>p = 0.026</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ns (p = 0.052)</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ns (p = 0.059)</t>
         </is>
       </c>
     </row>

--- a/paper/supplementary tables/supplementary_tables.xlsx
+++ b/paper/supplementary tables/supplementary_tables.xlsx
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>normal, overweigth, obesity</t>
+          <t>normal, overweight, obesity</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>normal, overweigth, obesity</t>
+          <t>normal, overweight, obesity</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -19488,7 +19488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Non-specific Inferion Phenotype (NIP)</t>
+          <t>Non-specific Infection Phenotype (NIP)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -19789,7 +19789,7 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>normal: 54.6% (147)
-overweigth: 29.4% (79)
+overweight: 29.4% (79)
 obesity: 16% (43) 
 ncomplete = 269</t>
         </is>
@@ -19797,7 +19797,7 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>normal: 51% (53)
-overweigth: 27.9% (29)
+overweight: 27.9% (29)
 obesity: 21.2% (22) 
 ncomplete = 104</t>
         </is>
@@ -19805,7 +19805,7 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>normal: 62.8% (108)
-overweigth: 23.3% (40)
+overweight: 23.3% (40)
 obesity: 14% (24) 
 ncomplete = 172</t>
         </is>
@@ -20515,7 +20515,7 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>normal: 57.6% (137)
-overweigth: 31.9% (76)
+overweight: 31.9% (76)
 obesity: 10.5% (25) 
 ncomplete = 238</t>
         </is>
@@ -20523,7 +20523,7 @@
       <c r="E19" t="inlineStr">
         <is>
           <t>normal: 61.4% (35)
-overweigth: 28.1% (16)
+overweight: 28.1% (16)
 obesity: 10.5% (6) 
 ncomplete = 57</t>
         </is>
@@ -20531,7 +20531,7 @@
       <c r="F19" t="inlineStr">
         <is>
           <t>normal: 73.3% (99)
-overweigth: 16.3% (22)
+overweight: 16.3% (22)
 obesity: 10.4% (14) 
 ncomplete = 135</t>
         </is>
@@ -21241,7 +21241,7 @@
       <c r="D34" t="inlineStr">
         <is>
           <t>normal: 44.7% (46)
-overweigth: 36.9% (38)
+overweight: 36.9% (38)
 obesity: 18.4% (19) 
 ncomplete = 103</t>
         </is>
@@ -21249,7 +21249,7 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>normal: 51.9% (28)
-overweigth: 25.9% (14)
+overweight: 25.9% (14)
 obesity: 22.2% (12) 
 ncomplete = 54</t>
         </is>
@@ -21257,7 +21257,7 @@
       <c r="F34" t="inlineStr">
         <is>
           <t>normal: 62.5% (35)
-overweigth: 21.4% (12)
+overweight: 21.4% (12)
 obesity: 16.1% (9) 
 ncomplete = 56</t>
         </is>
@@ -21957,7 +21957,7 @@
       <c r="D49" t="inlineStr">
         <is>
           <t>normal: 52.1% (49)
-overweigth: 34% (32)
+overweight: 34% (32)
 obesity: 13.8% (13) 
 ncomplete = 94</t>
         </is>
@@ -21965,7 +21965,7 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>normal: 57.1% (12)
-overweigth: 33.3% (7)
+overweight: 33.3% (7)
 obesity: 9.52% (2) 
 ncomplete = 21</t>
         </is>
@@ -21973,7 +21973,7 @@
       <c r="F49" t="inlineStr">
         <is>
           <t>normal: 75% (39)
-overweigth: 15.4% (8)
+overweight: 15.4% (8)
 obesity: 9.62% (5) 
 ncomplete = 52</t>
         </is>
